--- a/ML_PU2/Issues_PU2.xlsx
+++ b/ML_PU2/Issues_PU2.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Proyectos\Calidad_Bombardier\ML_PU2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0612544\Documents\Projects\Quality\ShinyDashboards\RNC_Dashboard\ML_PU2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA31D685-ECFC-45DF-802D-5024453A39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE851AEE-C28F-4441-B4EB-F71FC3F6601C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{50453E90-B833-4AED-AC2E-0256C71A3D37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{50453E90-B833-4AED-AC2E-0256C71A3D37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Slats" sheetId="2" r:id="rId2"/>
-    <sheet name="TC5-6" sheetId="3" r:id="rId3"/>
-    <sheet name="TC7-8" sheetId="4" r:id="rId4"/>
-    <sheet name="Z1" sheetId="5" r:id="rId5"/>
-    <sheet name="Z2" sheetId="6" r:id="rId6"/>
-    <sheet name="Z3" sheetId="7" r:id="rId7"/>
+    <sheet name="Slats" sheetId="2" r:id="rId1"/>
+    <sheet name="TC5-6" sheetId="3" r:id="rId2"/>
+    <sheet name="TC7-8" sheetId="4" r:id="rId3"/>
+    <sheet name="Z1" sheetId="5" r:id="rId4"/>
+    <sheet name="Z2" sheetId="6" r:id="rId5"/>
+    <sheet name="Z3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>Issue</t>
   </si>
@@ -160,6 +158,12 @@
   </si>
   <si>
     <t xml:space="preserve"> LOCATION BL 0.000 &amp; FS 844.75 UNABLE TO INSTALL GD42-7800-3 VELCRO (PLY) ON GD421-7874-47 PANEL ASSY</t>
+  </si>
+  <si>
+    <t>ISSUE 84</t>
+  </si>
+  <si>
+    <t>ISSUE 85</t>
   </si>
 </sst>
 </file>
@@ -527,25 +531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14334F10-8FE3-4CC1-9F3A-58F34416847C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5812750-F55F-4980-B70A-AC3D53C36127}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +571,12 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -591,6 +588,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -602,6 +605,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -612,6 +621,12 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -619,12 +634,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC448337-316C-48F2-B696-E82E5695C820}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +675,12 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -670,6 +692,12 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -681,6 +709,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -691,6 +725,12 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,6 +742,12 @@
       </c>
       <c r="C6">
         <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -709,12 +755,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4A4AC7-646E-4D72-9BAB-4876BCB3E0A9}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +793,12 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -757,6 +810,12 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -768,6 +827,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -778,6 +843,12 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,6 +861,12 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -801,6 +878,12 @@
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -812,6 +895,12 @@
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -823,6 +912,12 @@
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -834,6 +929,12 @@
       <c r="C10">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -845,6 +946,12 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -856,6 +963,12 @@
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -867,6 +980,12 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -877,6 +996,12 @@
       </c>
       <c r="C14">
         <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -884,12 +1009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA90C02-D4BB-4C5F-9187-585102F04148}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +1047,12 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -932,6 +1064,12 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -942,6 +1080,12 @@
       </c>
       <c r="C4">
         <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -949,12 +1093,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B752A650-B998-4B3B-9D06-D4882374BEB2}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +1131,12 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -997,6 +1148,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1007,6 +1164,12 @@
       </c>
       <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,12 +1194,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E904DC-7135-46F7-93D5-7D255BFCFE6B}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,22 +1226,34 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,6 +1266,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1100,6 +1282,12 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,6 +1300,12 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1123,6 +1317,12 @@
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1134,6 +1334,12 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1145,6 +1351,12 @@
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1156,6 +1368,12 @@
       <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1167,6 +1385,12 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1177,6 +1401,12 @@
       </c>
       <c r="C12">
         <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
